--- a/Natural Language Processing/Assignment/Tested_set.xlsx
+++ b/Natural Language Processing/Assignment/Tested_set.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">blacknaped oriole explore more topics name description  description male overall bright yellow plumage with nape and wing tips black female like male but  </t>
+          <t>blacknaped oriole explore more topics name descriptiondescription male overall bright yellow plumage with nape and wing tips black female like male but</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">the blacknaped oriole oriolus chinensis is a passerine bird in the oriole family that is found in many parts of asia there are several distinctive populations within the wide distribution range of this species and in the past the slenderbilled oriole oriolus tenuirostris was included as a subspecies unlike the indian golden oriole which  </t>
+          <t>the blacknaped oriole oriolus chinensis is a passerine bird in the oriole family that is found in many parts of asia there are several distinctive populations within the wide distribution range of this species and in the past the slenderbilled oriole oriolus tenuirostris was included as a subspecies unlike the indian golden oriole which</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>oriolus chinensis is relatively medium in size from the tip of the tail to the beak about 25 cm this bird is black and yellow with a black stripe passing through the eyes and nape mostly black flying feathers the lower body is whitish with black dots red iris the shape of the beak is tapered and slightly curved downward the length of the beak is approximately 3 cm the legs are black</t>
+          <t>oriolus chinensis is relatively medium in size from the tip of the tail to the beak aboutcm this bird is black and yellow with a black stripe passing through the eyes and nape mostly black flying feathers the lower body is whitish with black dots red iris the shape of the beak is tapered and slightly curved downward the length of the beak is approximatelycm the legs are black</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> little egret egretta garzetta ardeidae family migrant common length 24 610mm wingspan 38965mm bird 3  april 2008 the smallest egret found in the philippines it is very common and can be found all over it is easy to identify due to the yellow feet bill is long and slender</t>
+          <t xml:space="preserve"> little egret egretta garzetta ardeidae family migrant common lengthmm wingspan mm birdaprilthe smallest egret found in the philippines it is very common and can be found all over it is easy to identify due to the yellow feet bill is long and slender</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">blacknaped oriole distribution soib 2020 state of indias birds factsheet blacknaped oriole oriolus chinensis httpswwwstateofindiasbirdsinspeciesblnori1  </t>
+          <t>blacknaped oriole distribution soibstate of indias birds factsheet blacknaped oriole oriolus chinensis httpswwwstateofindiasbirdsinspeciesblnori</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -867,8 +867,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>i spotted this individual  kl my
-im at my wits end trying to identify him i cant tell if hes javan or jungle im colorblind and the picture is not</t>
+          <t>i spotted this individualkl myim at my wits end trying to identify him i cant tell if hes javan or jungle im colorblind and the picture is not</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -988,7 +987,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">the forest kingfisher is also known as macleays blue or bush kingfisher similar species two species related to the forest kingfisher may be similar however the collared kingfisher t chloris  is larger and greener with no white wing patch while the sacred kingfisher  t sanctus  is a little larger with more buff brown underparts and no wing patch </t>
+          <t xml:space="preserve">the forest kingfisher is also known as macleays blue or bush kingfisher similar species two species related to the forest kingfisher may be similar however the collared kingfisher t chlorisis larger and greener with no white wing patch while the sacred kingfishert sanctusis a little larger with more buff brown underparts and no wing patch </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1018,7 +1017,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>top of page skip to main content home  background  awards  exhibition  media covers  clients  landscapes  leaves  the small world  cityscapes</t>
+          <t>top of page skip to main content homebackgroundawardsexhibitionmedia coversclientslandscapesleavesthe small worldcityscapes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1048,7 +1047,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">jun 3 2021   collared kingfishers or whitecollared kingfishers get their name from the white collar patch on their necks these blueandwhite birds are mainly found in forests and grasslands and occupy a range of habitats like lowland forests subtropical dry grasslands mangroves marshlands and shrublands </t>
+          <t xml:space="preserve">juncollared kingfishers or whitecollared kingfishers get their name from the white collar patch on their necks these blueandwhite birds are mainly found in forests and grasslands and occupy a range of habitats like lowland forests subtropical dry grasslands mangroves marshlands and shrublands </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1078,7 +1077,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>published september 25 2023 views 279</t>
+          <t xml:space="preserve">published septemberviews </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1108,7 +1107,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>published september 13 2023 views 98</t>
+          <t xml:space="preserve">published septemberviews </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1228,7 +1227,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">posted at may 20 2021 0135 pm a black naped oriole oriolus chinensis is spotted flying around up village in quezon city on thursday the black naped oriole locally called kilyawan in tagalog and tulihaw in visayan is a fairly common bird in the philippines known to be omnivores eating mostly fruits and insects </t>
+          <t xml:space="preserve">posted at maypm a black naped oriole oriolus chinensis is spotted flying around up village in quezon city on thursday the black naped oriole locally called kilyawan in tagalog and tulihaw in visayan is a fairly common bird in the philippines known to be omnivores eating mostly fruits and insects </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1258,7 +1257,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>order passeriformes    family sturnidae       conservation status least concern synonyms  whitevented myna buffalo myna the javan myna is often confused with other myna species mostly due to the inconsistent usage of the common names associated with the acridotheres genus of crested mynas the javan myna great myna acridotheres grandis and crested myna acridotheres cristatellius have all</t>
+          <t>order passeriformesfamily sturnidaeconservation status least concern synonymswhitevented myna buffalo myna the javan myna is often confused with other myna species mostly due to the inconsistent usage of the common names associated with the acridotheres genus of crested mynas the javan myna great myna acridotheres grandis and crested myna acridotheres cristatellius have all</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1318,7 +1317,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">nov 22 2022   collared kingfisher  image by julie edgley via flickr  cc bysa 20 scientific name todiramphus chloris collared kingfishers are mediumsized tree kingfishers that live from the mediterranean all the way to polynesia their bright blue and white feathers stand out against the green and brown foliage of the swamps where they live </t>
+          <t xml:space="preserve">novcollared kingfisherimage by julie edgley via flickrcc bysascientific name todiramphus chloris collared kingfishers are mediumsized tree kingfishers that live from the mediterranean all the way to polynesia their bright blue and white feathers stand out against the green and brown foliage of the swamps where they live </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1348,7 +1347,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>november 30 2022  coby and michael dahlem birds of australia little egret ardea egretta garzetta</t>
+          <t>novembercoby and michael dahlem birds of australia little egret ardea egretta garzetta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1378,7 +1377,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">provisional either 1 member of exotic population that is breeding in the wild selfpropagating and has persisted for multiple years but not yet naturalized 2 rarity of uncertain provenance with natural vagrancy or captive provenance both considered plausible when applicable ebird generally defers to bird records committees for  </t>
+          <t>provisional eithermember of exotic population that is breeding in the wild selfpropagating and has persisted for multiple years but not yet naturalizedrarity of uncertain provenance with natural vagrancy or captive provenance both considered plausible when applicable ebird generally defers to bird records committees for</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1408,7 +1407,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">apr 11 2021   the collared kingfisher scientific name todiramphus chloris is a mediumsized kingfisher belonging to the subfamily halcyoninae the tree kingfishers this article is going to provide you an overview of collared kingfisher sound food facts diet etc it is usually referred to as the whitecollared kingfisher or mangrove kingfisher </t>
+          <t xml:space="preserve">aprthe collared kingfisher scientific name todiramphus chloris is a mediumsized kingfisher belonging to the subfamily halcyoninae the tree kingfishers this article is going to provide you an overview of collared kingfisher sound food facts diet etc it is usually referred to as the whitecollared kingfisher or mangrove kingfisher </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1438,7 +1437,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">actenoides concretus  temminck cj 1825 the rufouscollared kingfisher is a species of bird in the family alcedinidae it is found in brunei indonesia malaysia myanmar and thailand its natural habitats are subtropical or tropical moist lowland forest and subtropical or tropical moist montane forest </t>
+          <t xml:space="preserve">actenoides concretustemminck cjthe rufouscollared kingfisher is a species of bird in the family alcedinidae it is found in brunei indonesia malaysia myanmar and thailand its natural habitats are subtropical or tropical moist lowland forest and subtropical or tropical moist montane forest </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1498,7 +1497,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>it was in singapore in 2012 that photographer anas lpez first encountered the javan mynah a small black bird with yellow legs a prominent crest and a loud</t>
+          <t>it was in singapore inthat photographer anas lpez first encountered the javan mynah a small black bird with yellow legs a prominent crest and a loud</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1528,7 +1527,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>yinger chinese  ynger is an openworld npc in liyue harbor her dialogue changes slightly after completing act ii of chapter i yinger is a shop assistant for the scent of spring at chihu rock a shop for fine vases she also makes perfumes as a side job during the events of farewell</t>
+          <t>yinger chineseynger is an openworld npc in liyue harbor her dialogue changes slightly after completing act ii of chapter i yinger is a shop assistant for the scent of spring at chihu rock a shop for fine vases she also makes perfumes as a side job during the events of farewell</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1558,7 +1557,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">the yellow oriole  o flavocinctus and olivebacked oriole  o sagittatus are greenishyellow australian species the blackandcrimson oriole  o cruentus of malaya borneo sumatra and bali is mostly blackcolored with dark crimson patches on the breast and on the wings the yellow figbird or bananabird  sphecotheres viridis  </t>
+          <t>the yellow orioleo flavocinctus and olivebacked orioleo sagittatus are greenishyellow australian species the blackandcrimson orioleo cruentus of malaya borneo sumatra and bali is mostly blackcolored with dark crimson patches on the breast and on the wings the yellow figbird or bananabirdsphecotheres viridis</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1618,7 +1617,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7 nov 2010  the javan myna has an amazingly liquid voice that allows it to imitate a range of calls into its repertoire emanating through its</t>
+          <t xml:space="preserve"> novthe javan myna has an amazingly liquid voice that allows it to imitate a range of calls into its repertoire emanating through its</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">

--- a/Natural Language Processing/Assignment/Tested_set.xlsx
+++ b/Natural Language Processing/Assignment/Tested_set.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>looking for fun and interesting facts about a blacknaped oriole learn about this amazing bird and discover other animals from tiny insects to giant mammals</t>
+          <t>looking fun interesting fact black naped oriole learn amazing bird discover animal tiny insect giant mammal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">giant panda grey wolf canis lupus proboscis monkey western gorilla gorilla gorilla scarlet macaw ara macao basic facts about blackhooded oriole lifespan distribution and habitat map lifestyle and social behavior mating habits diet and nutrition population size and status </t>
+          <t>giant panda grey wolf canis lupus proboscis monkey western gorilla gorilla gorilla scarlet macaw ara macao basic fact black hooded oriole lifespan distribution habitat map lifestyle social behavior mating habit diet nutrition population size status</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>javanicus displayed during feeding such as walking jumping hopping gleaning running short flying voicing looking around and feather fluffing a</t>
+          <t>javanicus displayed feeding walking jumping hopping gleaning running short flying voicing looking around feather fluffing</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>blacknaped oriole explore more topics name descriptiondescription male overall bright yellow plumage with nape and wing tips black female like male but</t>
+          <t>black naped oriole explore topic name description description male overall bright yellow plumage nape wing tip black female like male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>the javan myna also known as the whitevented myna is a species of myna it is a member of the starling family it is native to bali and java it has been introduced to other asian countries and as far away as puerto rico</t>
+          <t>javan myna also known white vented myna specie myna member starling family native bali java introduced asian country far away puerto rico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>dont worry its not a typo error it is true that common myna are not a common sight anymore sadly common myna are native to asia so you might wonder what happened to them ill go into that soon but before that let me introduce you to them common myna acridotheres tristis by smarko on</t>
+          <t>worry typo error true common myna common sight anymore sadly common myna native asia might wonder happened go soon let introduce common myna acridotheres tristis smarko</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>the blacknaped oriole oriolus chinensis is a passerine bird in the oriole family that is found in many parts of asia there are several distinctive populations within the wide distribution range of this species and in the past the slenderbilled oriole oriolus tenuirostris was included as a subspecies unlike the indian golden oriole which</t>
+          <t>black naped oriole oriolus chinensis passerine bird oriole family found many part asia several distinctive population within wide distribution range specie past slender billed oriole oriolus tenuirostris included subspecies unlike indian golden oriole</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>oriolus chinensis is relatively medium in size from the tip of the tail to the beak aboutcm this bird is black and yellow with a black stripe passing through the eyes and nape mostly black flying feathers the lower body is whitish with black dots red iris the shape of the beak is tapered and slightly curved downward the length of the beak is approximatelycm the legs are black</t>
+          <t>oriolus chinensis relatively medium size tip tail beak cm bird black yellow black stripe passing eye nape mostly black flying feather lower body whitish black dot red iris shape beak tapered slightly curved downward length beak approximately cm leg black</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> little egret is a common waterbird in hong kong since most little egrets are residents in hong kong they occur throughout the year in various types of wetlands including freshwater marshes and intertidal mudflat visitors may find little egrets preying or resting at the shallow waters in </t>
+          <t>little egret common waterbird hong kong since little egret resident hong kong occur throughout year various type wetland including freshwater marsh intertidal mudflat visitor may find little egret preying resting shallow water</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> little egret egretta garzetta ardeidae family migrant common lengthmm wingspan mm birdaprilthe smallest egret found in the philippines it is very common and can be found all over it is easy to identify due to the yellow feet bill is long and slender</t>
+          <t>little egret egretta garzetta ardeidae family migrant common length mm wingspan mm bird april smallest egret found philippine common found easy identify due yellow foot bill long slender</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pxcaptcha</t>
+          <t>px captcha</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> we cannot provide a description for this page right now</t>
+          <t>provide description page right</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>blacknaped oriole distribution soibstate of indias birds factsheet blacknaped oriole oriolus chinensis httpswwwstateofindiasbirdsinspeciesblnori</t>
+          <t>black naped oriole distribution soib state india bird factsheet black naped oriole oriolus chinensis http www stateofindiasbirds specie blnori</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>i spotted this individualkl myim at my wits end trying to identify him i cant tell if hes javan or jungle im colorblind and the picture is not</t>
+          <t>spotted individual kl wit end trying identify tell javan jungle colorblind picture</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">description the blacknaped oriole is mediumsized and overall golden with a strong pinkish bill and a broad black mask and nape the adult male has the central tail feathers tipped yellow and the lateral ones are more broadly yellow the female has the mantle colour more greenish or olive the juvenile has a streaked underside </t>
+          <t>description black naped oriole medium sized overall golden strong pinkish bill broad black mask nape adult male central tail feather tipped yellow lateral one broadly yellow female mantle colour greenish olive juvenile streaked underside</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>males are bright yellow overall save for the black wings and inner tail feathers note the yellow patch on the wings the yellow outer tail feathers the black stripe through the eye that gives it a masked appearance and the fleshy pink bill the female is dull greenishyellow overall with dirty browngreen wings and a completely yellowish tail both males and females have red iris most often found feeding in tree canopies either singly or in pairs they generally give a harsh krrrrrrrrrrrr call while feeding in flight note its characteristic dipping flight style</t>
+          <t>male bright yellow overall save black wing inner tail feather note yellow patch wing yellow outer tail feather black stripe eye give masked appearance fleshy pink bill female dull greenish yellow overall dirty brown green wing completely yellowish tail male female red iris often found feeding tree canopy either singly pair generally give harsh krrrrrrrrrrrr call feeding flight note characteristic dipping flight style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>the ebird taxonomy update is now complete these updates happen once a year to take into account splits lumps name changes and changes in the sequence of the species lists</t>
+          <t>ebird taxonomy update complete update happen year take account split lump name change change sequence specie list</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">the forest kingfisher is also known as macleays blue or bush kingfisher similar species two species related to the forest kingfisher may be similar however the collared kingfisher t chlorisis larger and greener with no white wing patch while the sacred kingfishert sanctusis a little larger with more buff brown underparts and no wing patch </t>
+          <t>forest kingfisher also known macleay blue bush kingfisher similar specie two specie related forest kingfisher may similar however collared kingfisher chloris larger greener white wing patch sacred kingfisher sanctus little larger buff brown underpart wing patch</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>top of page skip to main content homebackgroundawardsexhibitionmedia coversclientslandscapesleavesthe small worldcityscapes</t>
+          <t>top page skip main content home background award exhibition medium cover client landscape leaf small world cityscape</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">juncollared kingfishers or whitecollared kingfishers get their name from the white collar patch on their necks these blueandwhite birds are mainly found in forests and grasslands and occupy a range of habitats like lowland forests subtropical dry grasslands mangroves marshlands and shrublands </t>
+          <t>jun collared kingfisher white collared kingfisher get name white collar patch neck blue white bird mainly found forest grassland occupy range habitat like lowland forest subtropical dry grassland mangrove marshland shrublands</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">published septemberviews </t>
+          <t>published september view</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">published septemberviews </t>
+          <t>published september view</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">large kingfisher with variable plumage but always appears as a much greener and browner bird than either forest or sacred kingfishers note pale spot in front of the eyes that does not extend back over the eye occur exclusively among mangroves and adjacent mudflats and rockshelves </t>
+          <t>large kingfisher variable plumage always appears much greener browner bird either forest sacred kingfisher note pale spot front eye extend back eye occur exclusively among mangrove adjacent mudflats rock shelf</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>introduction our recent article on the redbilled quelea in punggol generated much debate in local conservation circles and the media about how invasive birds can impact our native biodiversity sitting at the crossroads of trade in asia singapore is inevitably also a hub for the pet industry and sets the stage for the sale of many</t>
+          <t>introduction recent article red billed quelea punggol generated much debate local conservation circle medium invasive bird impact native biodiversity sitting crossroad trade asia singapore inevitably also hub pet industry set stage sale many</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> search from little egret stock photos pictures and royaltyfree images from istock find highquality stock photos that you wont find anywhere else</t>
+          <t>search little egret stock photo picture royalty free image istock find high quality stock photo find anywhere else</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">posted at maypm a black naped oriole oriolus chinensis is spotted flying around up village in quezon city on thursday the black naped oriole locally called kilyawan in tagalog and tulihaw in visayan is a fairly common bird in the philippines known to be omnivores eating mostly fruits and insects </t>
+          <t>posted may pm black naped oriole oriolus chinensis spotted flying around village quezon city thursday black naped oriole locally called kilyawan tagalog tulihaw visayan fairly common bird philippine known omnivore eating mostly fruit insect</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>order passeriformesfamily sturnidaeconservation status least concern synonymswhitevented myna buffalo myna the javan myna is often confused with other myna species mostly due to the inconsistent usage of the common names associated with the acridotheres genus of crested mynas the javan myna great myna acridotheres grandis and crested myna acridotheres cristatellius have all</t>
+          <t>order passeriformes family sturnidae conservation status least concern synonym white vented myna buffalo myna javan myna often confused myna specie mostly due inconsistent usage common name associated acridotheres genus crested myna javan myna great myna acridotheres grandis crested myna acridotheres cristatellius</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">blacknapedoriole beautifulsoundang bagong alaga ni kurtplease subscribe po kayo sa channel nminfollow nyo din po ang fb page namin shiekurt vlogthank you </t>
+          <t>blacknapedoriole beautifulsoundang bagong alaga ni kurtplease subscribe po kayo sa channel nminfollow nyo din po ang fb page namin shiekurt vlogthank</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">novcollared kingfisherimage by julie edgley via flickrcc bysascientific name todiramphus chloris collared kingfishers are mediumsized tree kingfishers that live from the mediterranean all the way to polynesia their bright blue and white feathers stand out against the green and brown foliage of the swamps where they live </t>
+          <t>nov collared kingfisher image julie edgley via flickr cc sa scientific name todiramphus chloris collared kingfisher medium sized tree kingfisher live mediterranean way polynesia bright blue white feather stand green brown foliage swamp live</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>novembercoby and michael dahlem birds of australia little egret ardea egretta garzetta</t>
+          <t>november coby michael dahlem bird australia little egret ardea egretta garzetta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>provisional eithermember of exotic population that is breeding in the wild selfpropagating and has persisted for multiple years but not yet naturalizedrarity of uncertain provenance with natural vagrancy or captive provenance both considered plausible when applicable ebird generally defers to bird records committees for</t>
+          <t>provisional either member exotic population breeding wild self propagating persisted multiple year yet naturalized rarity uncertain provenance natural vagrancy captive provenance considered plausible applicable ebird generally defers bird record committee</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">aprthe collared kingfisher scientific name todiramphus chloris is a mediumsized kingfisher belonging to the subfamily halcyoninae the tree kingfishers this article is going to provide you an overview of collared kingfisher sound food facts diet etc it is usually referred to as the whitecollared kingfisher or mangrove kingfisher </t>
+          <t>apr collared kingfisher scientific name todiramphus chloris medium sized kingfisher belonging subfamily halcyoninae tree kingfisher article going provide overview collared kingfisher sound food fact diet etc usually referred white collared kingfisher mangrove kingfisher</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">actenoides concretustemminck cjthe rufouscollared kingfisher is a species of bird in the family alcedinidae it is found in brunei indonesia malaysia myanmar and thailand its natural habitats are subtropical or tropical moist lowland forest and subtropical or tropical moist montane forest </t>
+          <t>actenoides concretus temminck cj rufous collared kingfisher specie bird family alcedinidae found brunei indonesia malaysia myanmar thailand natural habitat subtropical tropical moist lowland forest subtropical tropical moist montane forest</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>everyone knows singapores national flower is the orchid but do you know that singapores national bird is the crimson sunbird</t>
+          <t>everyone know singapore national flower orchid know singapore national bird crimson sunbird</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>it was in singapore inthat photographer anas lpez first encountered the javan mynah a small black bird with yellow legs a prominent crest and a loud</t>
+          <t>singapore photographer ana l pez first encountered javan mynah small black bird yellow leg prominent crest loud</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>yinger chineseynger is an openworld npc in liyue harbor her dialogue changes slightly after completing act ii of chapter i yinger is a shop assistant for the scent of spring at chihu rock a shop for fine vases she also makes perfumes as a side job during the events of farewell</t>
+          <t>ying er chinese ng er open world npc liyue harbor dialogue change slightly completing act ii chapter ying er shop assistant scent spring chihu rock shop fine vas also make perfume side job event farewell</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>the yellow orioleo flavocinctus and olivebacked orioleo sagittatus are greenishyellow australian species the blackandcrimson orioleo cruentus of malaya borneo sumatra and bali is mostly blackcolored with dark crimson patches on the breast and on the wings the yellow figbird or bananabirdsphecotheres viridis</t>
+          <t>yellow oriole flavocinctus olive backed oriole sagittatus greenish yellow australian specie black crimson oriole cruentus malaya borneo sumatra bali mostly black colored dark crimson patch breast wing yellow figbird bananabird sphecotheres viridis</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">blacknaped orioles have been recorded to feed on a range of berries including trema orientalis ficus and others apart from insects in india it has been no </t>
+          <t>black naped oriole recorded feed range berry including trema orientalis ficus others apart insect india</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> novthe javan myna has an amazingly liquid voice that allows it to imitate a range of calls into its repertoire emanating through its</t>
+          <t>nov javan myna amazingly liquid voice allows imitate range call repertoire emanating</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
